--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workspace\AutomationTest\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="2475"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +58,7 @@
     <t>Gupta</t>
   </si>
   <si>
-    <t>https://www.amazon.in/</t>
+    <t>https://www.amazon.com/</t>
   </si>
 </sst>
 </file>
@@ -429,7 +433,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestKey</t>
   </si>
@@ -58,7 +58,19 @@
     <t>Gupta</t>
   </si>
   <si>
-    <t>https://www.amazon.com/</t>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>OnePlus Nord CE 3 5G (Aqua Surge, 8GB RAM,</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Electronics</t>
   </si>
 </sst>
 </file>
@@ -430,16 +442,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,6 +484,22 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -479,5 +507,6 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>